--- a/data/trans_dic/P9_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P9_2_R-Habitat-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 12,44</t>
+          <t>2,35; 12,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 19,67</t>
+          <t>8,71; 20,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,52; 23,22</t>
+          <t>9,64; 23,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,06; 30,32</t>
+          <t>13,2; 29,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 21,11</t>
+          <t>9,0; 21,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,76; 34,35</t>
+          <t>17,26; 35,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 30,26</t>
+          <t>13,94; 29,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 26,67</t>
+          <t>16,39; 26,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 15,19</t>
+          <t>6,58; 14,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,51; 25,66</t>
+          <t>14,28; 24,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,53; 24,05</t>
+          <t>13,84; 23,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,35; 25,7</t>
+          <t>16,13; 24,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,4</t>
+          <t>5,96; 10,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,91</t>
+          <t>9,13; 14,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 13,26</t>
+          <t>7,98; 13,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 16,45</t>
+          <t>11,01; 16,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 12,16</t>
+          <t>7,47; 12,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,9</t>
+          <t>16,83; 23,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,3; 26,41</t>
+          <t>19,29; 26,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,74; 21,91</t>
+          <t>16,47; 21,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 10,49</t>
+          <t>7,28; 10,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,67; 18,05</t>
+          <t>13,68; 18,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 19,09</t>
+          <t>14,51; 18,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 18,42</t>
+          <t>14,34; 18,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,15</t>
+          <t>6,58; 10,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,15</t>
+          <t>9,93; 14,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,39</t>
+          <t>7,28; 11,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,4</t>
+          <t>8,99; 13,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 15,79</t>
+          <t>11,51; 15,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,73; 24,97</t>
+          <t>19,85; 25,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 18,94</t>
+          <t>14,18; 18,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 21,45</t>
+          <t>17,35; 21,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 12,39</t>
+          <t>9,46; 12,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,42; 18,85</t>
+          <t>15,29; 18,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,37; 14,38</t>
+          <t>11,18; 14,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 16,85</t>
+          <t>13,65; 16,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,09</t>
+          <t>6,83; 11,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,28</t>
+          <t>6,71; 11,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,49</t>
+          <t>5,22; 9,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,84; 17,52</t>
+          <t>11,87; 17,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,11; 19,62</t>
+          <t>13,99; 19,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,86; 20,14</t>
+          <t>14,79; 20,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,7; 19,11</t>
+          <t>13,55; 19,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 19,83</t>
+          <t>10,96; 20,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 14,81</t>
+          <t>11,02; 14,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 14,88</t>
+          <t>11,34; 14,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,19; 13,49</t>
+          <t>10,05; 13,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,76</t>
+          <t>12,11; 17,7</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 9,83</t>
+          <t>6,52; 9,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,37</t>
+          <t>9,01; 13,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 11,77</t>
+          <t>7,71; 11,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,55; 14,66</t>
+          <t>10,83; 14,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 19,44</t>
+          <t>14,75; 19,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,48</t>
+          <t>16,53; 21,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,47; 19,58</t>
+          <t>14,36; 19,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,02; 23,86</t>
+          <t>18,93; 23,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,3; 14,29</t>
+          <t>11,39; 14,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,64; 17,05</t>
+          <t>13,68; 17,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 15,14</t>
+          <t>11,97; 15,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,7; 18,88</t>
+          <t>15,73; 18,96</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,16</t>
+          <t>7,22; 9,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,89; 12,18</t>
+          <t>9,93; 12,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,32</t>
+          <t>8,33; 10,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,71; 14,14</t>
+          <t>11,63; 14,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,85</t>
+          <t>13,41; 15,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,55; 21,26</t>
+          <t>18,48; 21,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,32; 19,18</t>
+          <t>16,41; 19,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,36; 20,57</t>
+          <t>17,37; 20,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,71; 12,25</t>
+          <t>10,74; 12,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,69; 16,43</t>
+          <t>14,71; 16,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,64; 14,46</t>
+          <t>12,79; 14,44</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,14; 17,15</t>
+          <t>15,16; 17,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P9_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P9_2_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,43</t>
+          <t>2,67; 12,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 20,15</t>
+          <t>8,1; 20,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 23,8</t>
+          <t>9,69; 22,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 21,25</t>
+          <t>8,84; 20,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 35,51</t>
+          <t>17,85; 34,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 29,9</t>
+          <t>14,15; 29,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,4</t>
+          <t>6,87; 14,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,28; 24,8</t>
+          <t>14,68; 25,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,84; 23,77</t>
+          <t>13,93; 24,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,28</t>
+          <t>5,93; 10,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 14,84</t>
+          <t>8,95; 14,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,24</t>
+          <t>8,13; 13,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,3</t>
+          <t>7,42; 12,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,83; 23,52</t>
+          <t>16,93; 23,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,29; 26,6</t>
+          <t>19,75; 26,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 10,57</t>
+          <t>7,31; 10,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,13</t>
+          <t>13,75; 18,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 18,8</t>
+          <t>14,53; 19,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,09</t>
+          <t>6,32; 9,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 14,02</t>
+          <t>10,0; 14,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,15</t>
+          <t>7,3; 10,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 15,84</t>
+          <t>11,61; 16,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,85; 25,11</t>
+          <t>19,54; 24,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,18; 18,98</t>
+          <t>14,11; 19,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 12,25</t>
+          <t>9,44; 12,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,29; 18,67</t>
+          <t>15,34; 18,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 14,36</t>
+          <t>11,31; 14,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 11,27</t>
+          <t>6,94; 11,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,28</t>
+          <t>6,67; 11,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,18</t>
+          <t>5,31; 9,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 19,85</t>
+          <t>14,03; 19,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,79; 20,27</t>
+          <t>14,81; 20,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,55; 19,2</t>
+          <t>13,58; 19,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,02; 14,64</t>
+          <t>11,14; 14,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,34; 14,97</t>
+          <t>11,46; 15,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 13,54</t>
+          <t>10,16; 13,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,84</t>
+          <t>6,51; 9,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 13,45</t>
+          <t>9,07; 13,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,82</t>
+          <t>7,83; 11,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,75; 19,37</t>
+          <t>14,78; 19,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,53; 21,54</t>
+          <t>16,59; 21,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,36; 19,31</t>
+          <t>14,65; 19,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,39; 14,32</t>
+          <t>11,07; 14,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,68; 17,01</t>
+          <t>13,7; 16,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,97; 15,43</t>
+          <t>11,69; 15,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 9,11</t>
+          <t>7,3; 9,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,93; 12,06</t>
+          <t>9,91; 12,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,33; 10,3</t>
+          <t>8,25; 10,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,41; 15,93</t>
+          <t>13,53; 15,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,48; 21,38</t>
+          <t>18,71; 21,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,41; 19,02</t>
+          <t>16,32; 19,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,74; 12,29</t>
+          <t>10,72; 12,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,71; 16,5</t>
+          <t>14,7; 16,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,79; 14,44</t>
+          <t>12,8; 14,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
